--- a/data/trans_orig/P1413-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>32712</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23162</v>
+        <v>22772</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44569</v>
+        <v>43426</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1198184079738794</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08483896485439994</v>
+        <v>0.08341075586902794</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1632512468073446</v>
+        <v>0.1590639119450884</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -765,19 +765,19 @@
         <v>36535</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25623</v>
+        <v>26513</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48775</v>
+        <v>49488</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1400685056503309</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0982327983276772</v>
+        <v>0.1016466004803477</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1869949743027655</v>
+        <v>0.1897279761516693</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -786,19 +786,19 @@
         <v>69247</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53906</v>
+        <v>54923</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85768</v>
+        <v>84920</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.129712603541973</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1009770867973442</v>
+        <v>0.1028806528290855</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1606595468795592</v>
+        <v>0.159070990393868</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>240298</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>228441</v>
+        <v>229584</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>249848</v>
+        <v>250238</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8801815920261206</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8367487531926554</v>
+        <v>0.8409360880549116</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9151610351456001</v>
+        <v>0.9165892441309721</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>209</v>
@@ -836,19 +836,19 @@
         <v>224303</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>212063</v>
+        <v>211350</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>235215</v>
+        <v>234325</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8599314943496692</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8130050256972345</v>
+        <v>0.8102720238483305</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9017672016723228</v>
+        <v>0.8983533995196522</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>447</v>
@@ -857,19 +857,19 @@
         <v>464601</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>448080</v>
+        <v>448928</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>479942</v>
+        <v>478925</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.870287396458027</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8393404531204409</v>
+        <v>0.840929009606132</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8990229132026563</v>
+        <v>0.8971193471709147</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>107097</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86184</v>
+        <v>88474</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124390</v>
+        <v>125848</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2172019017748555</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1747898086755114</v>
+        <v>0.1794323792464232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2522750021828555</v>
+        <v>0.2552317218291426</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>165</v>
@@ -982,19 +982,19 @@
         <v>167461</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>147180</v>
+        <v>146093</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>187540</v>
+        <v>186918</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3322968088017269</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2920525821057894</v>
+        <v>0.2898972316640601</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3721416074940756</v>
+        <v>0.3709063829550183</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>267</v>
@@ -1003,19 +1003,19 @@
         <v>274557</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>247804</v>
+        <v>246801</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>304981</v>
+        <v>303212</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2753769911789685</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2485435155172338</v>
+        <v>0.2475378424384578</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3058911088369075</v>
+        <v>0.304117469618747</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>385978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368685</v>
+        <v>367227</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>406891</v>
+        <v>404601</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7827980982251445</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7477249978171446</v>
+        <v>0.7447682781708573</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8252101913244887</v>
+        <v>0.8205676207535769</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>334</v>
@@ -1053,19 +1053,19 @@
         <v>336488</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>316409</v>
+        <v>317031</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>356769</v>
+        <v>357856</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6677031911982731</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6278583925059243</v>
+        <v>0.6290936170449817</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7079474178942107</v>
+        <v>0.7101027683359399</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>697</v>
@@ -1074,19 +1074,19 @@
         <v>722467</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>692043</v>
+        <v>693812</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>749220</v>
+        <v>750223</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7246230088210316</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6941088911630926</v>
+        <v>0.6958825303812527</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7514564844827663</v>
+        <v>0.7524621575615421</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>26795</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18430</v>
+        <v>18394</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38957</v>
+        <v>37059</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08403589404811428</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05780113861474283</v>
+        <v>0.05768876159536384</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1221812511871102</v>
+        <v>0.1162279060291902</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -1199,19 +1199,19 @@
         <v>47778</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36421</v>
+        <v>35975</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61814</v>
+        <v>60754</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1424463842569352</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1085851604997351</v>
+        <v>0.1072565400627849</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1842913028796672</v>
+        <v>0.1811329502452509</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -1220,19 +1220,19 @@
         <v>74573</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58818</v>
+        <v>59425</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90970</v>
+        <v>91756</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.113980628459111</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08990077876728299</v>
+        <v>0.09082838519559724</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1390435074192423</v>
+        <v>0.1402444752233078</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>292051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>279889</v>
+        <v>281787</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>300416</v>
+        <v>300452</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9159641059518857</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8778187488128898</v>
+        <v>0.8837720939708097</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9421988613852572</v>
+        <v>0.942311238404636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>286</v>
@@ -1270,19 +1270,19 @@
         <v>287634</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>273598</v>
+        <v>274658</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>298991</v>
+        <v>299437</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8575536157430648</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8157086971203331</v>
+        <v>0.8188670497547493</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8914148395002649</v>
+        <v>0.8927434599372152</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>569</v>
@@ -1291,19 +1291,19 @@
         <v>579685</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>563288</v>
+        <v>562502</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>595440</v>
+        <v>594833</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8860193715408891</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8609564925807576</v>
+        <v>0.8597555247766921</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.910099221232717</v>
+        <v>0.9091716148044027</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>68683</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55234</v>
+        <v>55078</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85536</v>
+        <v>84849</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1914935393946484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1539975670179364</v>
+        <v>0.1535601993221957</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2384817376988534</v>
+        <v>0.2365663687913089</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -1416,19 +1416,19 @@
         <v>50194</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38220</v>
+        <v>37917</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63926</v>
+        <v>64435</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1351288327256831</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1028913407553577</v>
+        <v>0.1020771662355737</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1720945346404337</v>
+        <v>0.17346651504057</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>123</v>
@@ -1437,19 +1437,19 @@
         <v>118878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>101448</v>
+        <v>101258</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>138970</v>
+        <v>140724</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1628177003959397</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1389454781250076</v>
+        <v>0.138685978264427</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1903366327570981</v>
+        <v>0.1927385762659123</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>289988</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>273135</v>
+        <v>273822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>303437</v>
+        <v>303593</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8085064606053516</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7615182623011466</v>
+        <v>0.7634336312086911</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8460024329820636</v>
+        <v>0.8464398006778043</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>332</v>
@@ -1487,19 +1487,19 @@
         <v>321262</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>307530</v>
+        <v>307021</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>333236</v>
+        <v>333539</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8648711672743169</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.827905465359566</v>
+        <v>0.826533484959431</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8971086592446422</v>
+        <v>0.8979228337644264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>623</v>
@@ -1508,19 +1508,19 @@
         <v>611249</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>591157</v>
+        <v>589403</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>628679</v>
+        <v>628869</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8371822996040603</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8096633672429019</v>
+        <v>0.8072614237340876</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8610545218749924</v>
+        <v>0.8613140217355729</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>11587</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5978</v>
+        <v>6273</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19394</v>
+        <v>19474</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05699386215369433</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02940456718814824</v>
+        <v>0.03085417669758008</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09539461314811178</v>
+        <v>0.09578509832116959</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -1633,19 +1633,19 @@
         <v>29027</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19815</v>
+        <v>19875</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40161</v>
+        <v>40338</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1397743951132829</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09541689858904874</v>
+        <v>0.09570673214834971</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1933914462020235</v>
+        <v>0.1942434238199374</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -1654,19 +1654,19 @@
         <v>40614</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28357</v>
+        <v>30011</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53816</v>
+        <v>54401</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09882322881888266</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06899919056492816</v>
+        <v>0.07302261292474892</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1309474126627635</v>
+        <v>0.1323698949676455</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>191721</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183914</v>
+        <v>183834</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197330</v>
+        <v>197035</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9430061378463057</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9046053868518883</v>
+        <v>0.9042149016788305</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9705954328118518</v>
+        <v>0.9691458233024199</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>171</v>
@@ -1704,19 +1704,19 @@
         <v>178641</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>167507</v>
+        <v>167330</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>187853</v>
+        <v>187793</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8602256048867172</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8066085537979768</v>
+        <v>0.8057565761800627</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9045831014109513</v>
+        <v>0.9042932678516505</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>365</v>
@@ -1725,19 +1725,19 @@
         <v>370362</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>357160</v>
+        <v>356575</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>382619</v>
+        <v>380965</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9011767711811174</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8690525873372363</v>
+        <v>0.8676301050323548</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9310008094350716</v>
+        <v>0.9269773870752511</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>35755</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25834</v>
+        <v>25593</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46568</v>
+        <v>47179</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1320306654486783</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09539531308628918</v>
+        <v>0.09450327829487665</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1719562361904775</v>
+        <v>0.1742148285162426</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -1850,19 +1850,19 @@
         <v>42126</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30981</v>
+        <v>30953</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54726</v>
+        <v>54006</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1514550454350433</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1113840140865726</v>
+        <v>0.1112851724844655</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1967557328465675</v>
+        <v>0.1941649732396953</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -1871,19 +1871,19 @@
         <v>77882</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63817</v>
+        <v>63249</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95535</v>
+        <v>95137</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1418725918499028</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1162518372008598</v>
+        <v>0.1152178892170316</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1740299215946641</v>
+        <v>0.1733048673623031</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>235056</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224243</v>
+        <v>223632</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244977</v>
+        <v>245218</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8679693345513217</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8280437638095226</v>
+        <v>0.8257851714837574</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9046046869137109</v>
+        <v>0.9054967217051235</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>229</v>
@@ -1921,19 +1921,19 @@
         <v>236018</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>223418</v>
+        <v>224138</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>247163</v>
+        <v>247191</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8485449545649566</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8032442671534328</v>
+        <v>0.8058350267603047</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8886159859134274</v>
+        <v>0.8887148275155345</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>459</v>
@@ -1942,19 +1942,19 @@
         <v>471073</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>453420</v>
+        <v>453818</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>485138</v>
+        <v>485706</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8581274081500972</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8259700784053359</v>
+        <v>0.8266951326376969</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8837481627991401</v>
+        <v>0.8847821107829684</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>92796</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>76602</v>
+        <v>76198</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>110838</v>
+        <v>112342</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1508818558301817</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1245506472298915</v>
+        <v>0.1238940963977828</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1802164443950013</v>
+        <v>0.1826618925828093</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>92</v>
@@ -2067,19 +2067,19 @@
         <v>89869</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>72854</v>
+        <v>74766</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>108448</v>
+        <v>106897</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1408120803505523</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1141519683452371</v>
+        <v>0.1171485128313353</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1699234347575252</v>
+        <v>0.1674931368287161</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>191</v>
@@ -2088,19 +2088,19 @@
         <v>182665</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>158672</v>
+        <v>158938</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>207074</v>
+        <v>209500</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.145753794614458</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1266085523718796</v>
+        <v>0.1268206815183887</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1652304225648866</v>
+        <v>0.167165914676217</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>522231</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>504189</v>
+        <v>502685</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>538425</v>
+        <v>538829</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8491181441698183</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8197835556049987</v>
+        <v>0.8173381074171902</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8754493527701086</v>
+        <v>0.8761059036022172</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>529</v>
@@ -2138,19 +2138,19 @@
         <v>548350</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>529771</v>
+        <v>531322</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>565365</v>
+        <v>563453</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8591879196494477</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8300765652424749</v>
+        <v>0.832506863171284</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.885848031654763</v>
+        <v>0.8828514871686648</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1028</v>
@@ -2159,19 +2159,19 @@
         <v>1070581</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1046172</v>
+        <v>1043746</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1094574</v>
+        <v>1094308</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.854246205385542</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8347695774351132</v>
+        <v>0.8328340853237829</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8733914476281199</v>
+        <v>0.8731793184816112</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>154823</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>133688</v>
+        <v>130949</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>178724</v>
+        <v>176955</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2081530869019312</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1797377902549507</v>
+        <v>0.1760553151187012</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2402861175568828</v>
+        <v>0.2379084575855329</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>176</v>
@@ -2284,19 +2284,19 @@
         <v>187228</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>163120</v>
+        <v>162863</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>212859</v>
+        <v>212335</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2389605238831248</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2081907696719237</v>
+        <v>0.2078630966426318</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2716731044035542</v>
+        <v>0.2710051057823122</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>334</v>
@@ -2305,19 +2305,19 @@
         <v>342051</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>309450</v>
+        <v>309482</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>375894</v>
+        <v>375045</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2239573625972027</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2026114193015921</v>
+        <v>0.2026327319634289</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2461159976777518</v>
+        <v>0.2455597798803626</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>588972</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>565071</v>
+        <v>566840</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>610107</v>
+        <v>612846</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7918469130980688</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7597138824431174</v>
+        <v>0.7620915424144673</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8202622097450495</v>
+        <v>0.8239446848812989</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>569</v>
@@ -2355,19 +2355,19 @@
         <v>596283</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>570652</v>
+        <v>571176</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>620391</v>
+        <v>620648</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7610394761168752</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7283268955964458</v>
+        <v>0.7289948942176877</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7918092303280764</v>
+        <v>0.7921369033573683</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1147</v>
@@ -2376,19 +2376,19 @@
         <v>1185255</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1151412</v>
+        <v>1152261</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1217856</v>
+        <v>1217824</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7760426374027973</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7538840023222483</v>
+        <v>0.7544402201196375</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7973885806984078</v>
+        <v>0.7973672680365711</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>530248</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>486494</v>
+        <v>493007</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>574118</v>
+        <v>577396</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.161831676252726</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1484779204118798</v>
+        <v>0.1504657268873401</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1752205520105942</v>
+        <v>0.1762209470458292</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>638</v>
@@ -2501,19 +2501,19 @@
         <v>650219</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>603165</v>
+        <v>604311</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>695624</v>
+        <v>696819</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1924180749738701</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1784936176616126</v>
+        <v>0.1788327100148702</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2058547955038011</v>
+        <v>0.2062084375556609</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1176</v>
@@ -2522,19 +2522,19 @@
         <v>1180467</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1118387</v>
+        <v>1114031</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1246914</v>
+        <v>1235946</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1773607483701837</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.168033460816211</v>
+        <v>0.1673790186796687</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1873441785768108</v>
+        <v>0.1856962932207405</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2746295</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2702425</v>
+        <v>2699147</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2790049</v>
+        <v>2783536</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8381683237472739</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8247794479894057</v>
+        <v>0.8237790529541708</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8515220795881202</v>
+        <v>0.8495342731126598</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2659</v>
@@ -2572,19 +2572,19 @@
         <v>2728978</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2683573</v>
+        <v>2682378</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2776032</v>
+        <v>2774886</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8075819250261298</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7941452044961991</v>
+        <v>0.7937915624443391</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8215063823383875</v>
+        <v>0.8211672899851298</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5335</v>
@@ -2593,19 +2593,19 @@
         <v>5475274</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5408827</v>
+        <v>5419795</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5537354</v>
+        <v>5541710</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8226392516298163</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8126558214231888</v>
+        <v>0.8143037067792593</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.831966539183789</v>
+        <v>0.832620981320331</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>17259</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10465</v>
+        <v>10474</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27286</v>
+        <v>27149</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05855671101120535</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03550774273377472</v>
+        <v>0.03553646380499595</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09257829526765199</v>
+        <v>0.09211327187021495</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -2962,19 +2962,19 @@
         <v>62948</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49418</v>
+        <v>47246</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79576</v>
+        <v>78912</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2191448206230875</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1720419965110368</v>
+        <v>0.1644780859407502</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2770311034706014</v>
+        <v>0.274719824505547</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -2983,19 +2983,19 @@
         <v>80207</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64867</v>
+        <v>63583</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>101360</v>
+        <v>98511</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1378169800063271</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1114593791701982</v>
+        <v>0.1092517950457856</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1741628939883788</v>
+        <v>0.1692685449070027</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>277479</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>267452</v>
+        <v>267589</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>284273</v>
+        <v>284264</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9414432889887947</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.907421704732348</v>
+        <v>0.907886728129785</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9644922572662252</v>
+        <v>0.964463536195004</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>201</v>
@@ -3033,19 +3033,19 @@
         <v>224297</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>207669</v>
+        <v>208333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>237827</v>
+        <v>239999</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7808551793769125</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7229688965293986</v>
+        <v>0.725280175494453</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8279580034889632</v>
+        <v>0.8355219140592498</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>466</v>
@@ -3054,19 +3054,19 @@
         <v>501776</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>480623</v>
+        <v>483472</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>517116</v>
+        <v>518400</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8621830199936729</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8258371060116212</v>
+        <v>0.8307314550929973</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8885406208298027</v>
+        <v>0.8907482049542144</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>28307</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19475</v>
+        <v>19050</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43000</v>
+        <v>42031</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05599567154624902</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03852504606519163</v>
+        <v>0.03768398264281869</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08505962894249039</v>
+        <v>0.08314313000736143</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -3179,19 +3179,19 @@
         <v>64828</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50437</v>
+        <v>50609</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82119</v>
+        <v>82002</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1237733665297285</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09629727983435898</v>
+        <v>0.09662526323327894</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1567868237643305</v>
+        <v>0.1565620355700905</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -3200,19 +3200,19 @@
         <v>93135</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75234</v>
+        <v>75583</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115108</v>
+        <v>113939</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0904849862370678</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0730925795985056</v>
+        <v>0.07343217537841526</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1118319128152402</v>
+        <v>0.1106960084612625</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>477220</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>462527</v>
+        <v>463496</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>486052</v>
+        <v>486477</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9440043284537509</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9149403710575095</v>
+        <v>0.9168568699926382</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9614749539348083</v>
+        <v>0.9623160173571812</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>420</v>
@@ -3250,19 +3250,19 @@
         <v>458937</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>441646</v>
+        <v>441763</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>473328</v>
+        <v>473156</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8762266334702715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8432131762356693</v>
+        <v>0.8434379644299096</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.903702720165641</v>
+        <v>0.903374736766721</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>868</v>
@@ -3271,19 +3271,19 @@
         <v>936157</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>914184</v>
+        <v>915353</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>954058</v>
+        <v>953709</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9095150137629322</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8881680871847599</v>
+        <v>0.8893039915387376</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9269074204014945</v>
+        <v>0.9265678246215848</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>24077</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17049</v>
+        <v>15081</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36525</v>
+        <v>34384</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0743012485774643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05261414234985669</v>
+        <v>0.04653855945844081</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1127163404617608</v>
+        <v>0.1061071667696236</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -3396,19 +3396,19 @@
         <v>50748</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38267</v>
+        <v>38306</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65538</v>
+        <v>67338</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1488114773482582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1122131492757433</v>
+        <v>0.1123264390983417</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1921826377707277</v>
+        <v>0.1974599358865117</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>68</v>
@@ -3417,19 +3417,19 @@
         <v>74825</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61080</v>
+        <v>58854</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93890</v>
+        <v>92727</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1125071987867935</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09184062003558004</v>
+        <v>0.08849350379711203</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.141174336135992</v>
+        <v>0.1394247995847743</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>299969</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>287521</v>
+        <v>289662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>306997</v>
+        <v>308965</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9256987514225357</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8872836595382391</v>
+        <v>0.8938928332303759</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9473858576501434</v>
+        <v>0.9534614405415592</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>272</v>
@@ -3467,19 +3467,19 @@
         <v>290272</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>275482</v>
+        <v>273682</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>302753</v>
+        <v>302714</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8511885226517418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8078173622292729</v>
+        <v>0.8025400641134866</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8877868507242568</v>
+        <v>0.8876735609016583</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>568</v>
@@ -3488,19 +3488,19 @@
         <v>590241</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>571176</v>
+        <v>572339</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>603986</v>
+        <v>606212</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8874928012132064</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8588256638640083</v>
+        <v>0.8605752004152262</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.90815937996442</v>
+        <v>0.9115064962028879</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>36396</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25746</v>
+        <v>25403</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50443</v>
+        <v>49823</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09732075594521915</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0688418453658526</v>
+        <v>0.06792597705186681</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1348810448491047</v>
+        <v>0.133222399772983</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -3613,19 +3613,19 @@
         <v>81720</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66251</v>
+        <v>66300</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99779</v>
+        <v>98317</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2101037093882448</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1703324683313116</v>
+        <v>0.1704589712023195</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2565324283598074</v>
+        <v>0.2527750010325686</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>113</v>
@@ -3634,19 +3634,19 @@
         <v>118116</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100499</v>
+        <v>99054</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>139951</v>
+        <v>139067</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1548186432947604</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1317277708607001</v>
+        <v>0.1298331339804822</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1834380081756716</v>
+        <v>0.1822790459253578</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>337586</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>323539</v>
+        <v>324159</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>348236</v>
+        <v>348579</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9026792440547808</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8651189551508954</v>
+        <v>0.8667776002270169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9311581546341477</v>
+        <v>0.932074022948133</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>291</v>
@@ -3684,19 +3684,19 @@
         <v>307231</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>289172</v>
+        <v>290634</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>322700</v>
+        <v>322651</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7898962906117551</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7434675716401926</v>
+        <v>0.7472249989674313</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8296675316686885</v>
+        <v>0.8295410287976794</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>602</v>
@@ -3705,19 +3705,19 @@
         <v>644817</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>622982</v>
+        <v>623866</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>662434</v>
+        <v>663879</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8451813567052396</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8165619918243284</v>
+        <v>0.8177209540746423</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8682722291392999</v>
+        <v>0.8701668660195176</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>31133</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20697</v>
+        <v>22021</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42575</v>
+        <v>44199</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1464289619228273</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09734431768087584</v>
+        <v>0.1035691949809721</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2002433480242146</v>
+        <v>0.2078795038905177</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -3830,19 +3830,19 @@
         <v>70323</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>56819</v>
+        <v>56150</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>83647</v>
+        <v>84100</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3202456641316776</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2587471230165434</v>
+        <v>0.2557041740346581</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3809221086215638</v>
+        <v>0.3829869728445373</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>94</v>
@@ -3851,19 +3851,19 @@
         <v>101456</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>85153</v>
+        <v>84196</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>120593</v>
+        <v>120299</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2347394320387593</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1970169727891196</v>
+        <v>0.1948043242904975</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2790151900255394</v>
+        <v>0.2783354471614836</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>181485</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>170043</v>
+        <v>168419</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>191921</v>
+        <v>190597</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8535710380771727</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7997566519757852</v>
+        <v>0.7921204961094823</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9026556823191236</v>
+        <v>0.8964308050190277</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>146</v>
@@ -3901,19 +3901,19 @@
         <v>149268</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>135944</v>
+        <v>135491</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>162772</v>
+        <v>163441</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6797543358683225</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6190778913784362</v>
+        <v>0.6170130271554625</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7412528769834567</v>
+        <v>0.7442958259653417</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>314</v>
@@ -3922,19 +3922,19 @@
         <v>330753</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>311616</v>
+        <v>311910</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>347056</v>
+        <v>348013</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7652605679612408</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7209848099744606</v>
+        <v>0.7216645528385165</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8029830272108804</v>
+        <v>0.8051956757095025</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>37827</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26020</v>
+        <v>26205</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50054</v>
+        <v>50776</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1380657446304144</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09496883277893595</v>
+        <v>0.09564526059200879</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1826904489852165</v>
+        <v>0.1853276711814918</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>47</v>
@@ -4047,19 +4047,19 @@
         <v>48972</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37388</v>
+        <v>36227</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62564</v>
+        <v>63019</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1760970369189578</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1344426892346272</v>
+        <v>0.1302678897463561</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2249714631989933</v>
+        <v>0.2266087602792648</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>83</v>
@@ -4068,19 +4068,19 @@
         <v>86799</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>70525</v>
+        <v>69174</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106538</v>
+        <v>105341</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1572231184364554</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1277453138579694</v>
+        <v>0.1252976479690057</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.192975800804097</v>
+        <v>0.1908083842976037</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>236154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223927</v>
+        <v>223205</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>247961</v>
+        <v>247776</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8619342553695856</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8173095510147835</v>
+        <v>0.8146723288185082</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.905031167221064</v>
+        <v>0.9043547394079913</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>221</v>
@@ -4118,19 +4118,19 @@
         <v>229124</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>215532</v>
+        <v>215077</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>240708</v>
+        <v>241869</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8239029630810422</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7750285368010067</v>
+        <v>0.7733912397207353</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.865557310765373</v>
+        <v>0.8697321102536438</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>446</v>
@@ -4139,19 +4139,19 @@
         <v>465278</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>445539</v>
+        <v>446736</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>481552</v>
+        <v>482903</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8427768815635447</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.807024199195903</v>
+        <v>0.8091916157023959</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8722546861420307</v>
+        <v>0.8747023520309942</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>70051</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54981</v>
+        <v>54492</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>89289</v>
+        <v>86391</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1056920658223974</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08295341352509913</v>
+        <v>0.08221690232171086</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1347170154583185</v>
+        <v>0.1303454029379348</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>128</v>
@@ -4264,19 +4264,19 @@
         <v>141287</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>120452</v>
+        <v>119432</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>165343</v>
+        <v>162298</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2036264612838057</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1735987634046607</v>
+        <v>0.1721287867687701</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2382975233106411</v>
+        <v>0.2339079199401227</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>196</v>
@@ -4285,19 +4285,19 @@
         <v>211338</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>186385</v>
+        <v>183995</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>242407</v>
+        <v>239999</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1557805348627204</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1373869444230065</v>
+        <v>0.1356251100674809</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1786820555395625</v>
+        <v>0.1769069162719566</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>592737</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>573499</v>
+        <v>576397</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>607807</v>
+        <v>608296</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8943079341776026</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8652829845416814</v>
+        <v>0.8696545970620652</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9170465864749008</v>
+        <v>0.9177830976782891</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>508</v>
@@ -4335,19 +4335,19 @@
         <v>552566</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>528510</v>
+        <v>531555</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>573401</v>
+        <v>574421</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7963735387161943</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7617024766893588</v>
+        <v>0.7660920800598773</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8264012365953393</v>
+        <v>0.82787121323123</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1058</v>
@@ -4356,19 +4356,19 @@
         <v>1145303</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1114234</v>
+        <v>1116642</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1170256</v>
+        <v>1172646</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8442194651372796</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8213179444604375</v>
+        <v>0.8230930837280435</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8626130555769933</v>
+        <v>0.8643748899325192</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>63902</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49503</v>
+        <v>49385</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80760</v>
+        <v>80711</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08202007730239758</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06353887668466143</v>
+        <v>0.06338682589751342</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1036584953054976</v>
+        <v>0.1035958203861451</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>112</v>
@@ -4481,19 +4481,19 @@
         <v>124720</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>104655</v>
+        <v>105273</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>147815</v>
+        <v>148545</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1516210605076224</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1272279952043227</v>
+        <v>0.127979049377051</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1796973965285657</v>
+        <v>0.1805846559381503</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>171</v>
@@ -4502,19 +4502,19 @@
         <v>188622</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>163794</v>
+        <v>161306</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>215859</v>
+        <v>216674</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1177652682634011</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1022640044587445</v>
+        <v>0.1007109349989036</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1347705623457076</v>
+        <v>0.1352793326081318</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>715196</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>698338</v>
+        <v>698387</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>729595</v>
+        <v>729713</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9179799226976024</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8963415046945024</v>
+        <v>0.8964041796138548</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9364611233153385</v>
+        <v>0.9366131741024865</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>644</v>
@@ -4552,19 +4552,19 @@
         <v>697858</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>674763</v>
+        <v>674033</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>717923</v>
+        <v>717305</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8483789394923776</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8203026034714342</v>
+        <v>0.81941534406185</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8727720047956772</v>
+        <v>0.8720209506229492</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1302</v>
@@ -4573,19 +4573,19 @@
         <v>1413054</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1385817</v>
+        <v>1385002</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1437882</v>
+        <v>1440370</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8822347317365988</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8652294376542924</v>
+        <v>0.8647206673918678</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8977359955412549</v>
+        <v>0.8992890650010964</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>308953</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>276856</v>
+        <v>276101</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>342302</v>
+        <v>343690</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09015856069546672</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0807917652590808</v>
+        <v>0.08057147521106037</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09989017190238039</v>
+        <v>0.1002953473902994</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>593</v>
@@ -4698,19 +4698,19 @@
         <v>645546</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>600691</v>
+        <v>604813</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>695564</v>
+        <v>693124</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1815831537791377</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1689659605699271</v>
+        <v>0.1701255694608248</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1956526500634283</v>
+        <v>0.1949662812637053</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>881</v>
@@ -4719,19 +4719,19 @@
         <v>954499</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>894341</v>
+        <v>896798</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1012130</v>
+        <v>1016417</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1367110012948312</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1280945850931611</v>
+        <v>0.1284465322192595</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1449653714807951</v>
+        <v>0.1455793343935314</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3117826</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3084477</v>
+        <v>3083089</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3149923</v>
+        <v>3150678</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9098414393045333</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9001098280976195</v>
+        <v>0.8997046526097007</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9192082347409192</v>
+        <v>0.9194285247889395</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2703</v>
@@ -4769,19 +4769,19 @@
         <v>2909552</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2859534</v>
+        <v>2861974</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2954407</v>
+        <v>2950285</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8184168462208623</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8043473499365716</v>
+        <v>0.8050337187362947</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8310340394300728</v>
+        <v>0.8298744305391754</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5624</v>
@@ -4790,19 +4790,19 @@
         <v>6027378</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5969747</v>
+        <v>5965460</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6087536</v>
+        <v>6085079</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8632889987051688</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8550346285192048</v>
+        <v>0.8544206656064686</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8719054149068389</v>
+        <v>0.8715534677807403</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>28447</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19537</v>
+        <v>19105</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40135</v>
+        <v>41558</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09683710939149835</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06650706201695376</v>
+        <v>0.06503728293362199</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1366260857557608</v>
+        <v>0.1414686637100857</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -5159,19 +5159,19 @@
         <v>56875</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43518</v>
+        <v>43674</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71386</v>
+        <v>70361</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1970010787182649</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1507345814538701</v>
+        <v>0.1512768657368825</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2472640310389334</v>
+        <v>0.2437143068523119</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -5180,19 +5180,19 @@
         <v>85322</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69395</v>
+        <v>67761</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>104665</v>
+        <v>104551</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1464841921091633</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1191411250756837</v>
+        <v>0.1163350210872808</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1796936221559362</v>
+        <v>0.1794970991416342</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>265314</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>253626</v>
+        <v>252203</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>274224</v>
+        <v>274656</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9031628906085016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8633739142442391</v>
+        <v>0.8585313362899143</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.933492937983046</v>
+        <v>0.934962717066378</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>225</v>
@@ -5230,19 +5230,19 @@
         <v>231828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217317</v>
+        <v>218342</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>245185</v>
+        <v>245029</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8029989212817351</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7527359689610666</v>
+        <v>0.7562856931476881</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8492654185461299</v>
+        <v>0.8487231342631175</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>465</v>
@@ -5251,19 +5251,19 @@
         <v>497142</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>477799</v>
+        <v>477913</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>513069</v>
+        <v>514703</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8535158078908367</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8203063778440634</v>
+        <v>0.8205029008583657</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8808588749243161</v>
+        <v>0.883664978912719</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>23014</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15412</v>
+        <v>15070</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33961</v>
+        <v>33269</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04579245902909958</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03066657807593467</v>
+        <v>0.02998483274898071</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06757309979755323</v>
+        <v>0.06619718642575402</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -5376,19 +5376,19 @@
         <v>36147</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25563</v>
+        <v>25909</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48593</v>
+        <v>49656</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06910400252371554</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04886989835146276</v>
+        <v>0.04953095903220674</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09289755094593782</v>
+        <v>0.09492967821128402</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -5397,19 +5397,19 @@
         <v>59161</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45520</v>
+        <v>44519</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76637</v>
+        <v>74917</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05768129451832785</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04438135834802284</v>
+        <v>0.04340478705908428</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07471993668678217</v>
+        <v>0.07304318520252873</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>479561</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>468614</v>
+        <v>469306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>487163</v>
+        <v>487505</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9542075409709004</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9324269002024463</v>
+        <v>0.9338028135742455</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9693334219240654</v>
+        <v>0.9700151672510193</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>451</v>
@@ -5447,19 +5447,19 @@
         <v>486937</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>474491</v>
+        <v>473428</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>497521</v>
+        <v>497175</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9308959974762845</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.907102449054062</v>
+        <v>0.9050703217887159</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9511301016485372</v>
+        <v>0.9504690409677928</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>903</v>
@@ -5468,19 +5468,19 @@
         <v>966498</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>949022</v>
+        <v>950742</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>980139</v>
+        <v>981140</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9423187054816722</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9252800633132178</v>
+        <v>0.9269568147974713</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9556186416519772</v>
+        <v>0.9565952129409157</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>24003</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15929</v>
+        <v>16489</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34661</v>
+        <v>34684</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07534689084229308</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0500023150871173</v>
+        <v>0.05175991763191639</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1088031585362823</v>
+        <v>0.1088746963253197</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -5593,19 +5593,19 @@
         <v>49810</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37518</v>
+        <v>37548</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65213</v>
+        <v>65523</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1481075184249325</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1115570856493748</v>
+        <v>0.1116484539139547</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1939076150744315</v>
+        <v>0.1948307695009517</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -5614,19 +5614,19 @@
         <v>73813</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59493</v>
+        <v>59043</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92504</v>
+        <v>90528</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1127129399783573</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09084585636886484</v>
+        <v>0.0901588517198597</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.141254702763302</v>
+        <v>0.1382369370322949</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>294562</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>283904</v>
+        <v>283881</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>302636</v>
+        <v>302076</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9246531091577069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8911968414637181</v>
+        <v>0.8911253036746807</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9499976849128829</v>
+        <v>0.9482400823680841</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>287</v>
@@ -5664,19 +5664,19 @@
         <v>286499</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>271096</v>
+        <v>270786</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>298791</v>
+        <v>298761</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8518924815750675</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8060923849255682</v>
+        <v>0.8051692304990483</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8884429143506244</v>
+        <v>0.8883515460860456</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>596</v>
@@ -5685,19 +5685,19 @@
         <v>581061</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>562370</v>
+        <v>564346</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>595381</v>
+        <v>595831</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8872870600216427</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8587452972366979</v>
+        <v>0.8617630629677052</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9091541436311351</v>
+        <v>0.9098411482801404</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>29735</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19715</v>
+        <v>20818</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41553</v>
+        <v>41586</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0803736059970391</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05328841274754999</v>
+        <v>0.056271604593282</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1123160865131418</v>
+        <v>0.1124042172001086</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -5810,19 +5810,19 @@
         <v>70693</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55940</v>
+        <v>55899</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88240</v>
+        <v>89792</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.182535506670368</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1444422011801976</v>
+        <v>0.1443368872774832</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2278430230575932</v>
+        <v>0.2318515277022191</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -5831,19 +5831,19 @@
         <v>100428</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83085</v>
+        <v>82309</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>120990</v>
+        <v>120776</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1326228291908495</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1097204508464172</v>
+        <v>0.1086956486440989</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1597761956581458</v>
+        <v>0.1594934791874536</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>340229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>328411</v>
+        <v>328378</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>350249</v>
+        <v>349146</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9196263940029609</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8876839134868578</v>
+        <v>0.8875957827998916</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9467115872524499</v>
+        <v>0.9437283954067182</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>293</v>
@@ -5881,19 +5881,19 @@
         <v>316590</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>299043</v>
+        <v>297491</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>331343</v>
+        <v>331384</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.817464493329632</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.772156976942406</v>
+        <v>0.7681484722977808</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8555577988198023</v>
+        <v>0.8556631127225168</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>619</v>
@@ -5902,19 +5902,19 @@
         <v>656819</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>636257</v>
+        <v>636471</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>674162</v>
+        <v>674938</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8673771708091506</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8402238043418542</v>
+        <v>0.8405065208125463</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8902795491535828</v>
+        <v>0.891304351355901</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>19227</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12002</v>
+        <v>12897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28944</v>
+        <v>29852</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09102587227089363</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05682086657222953</v>
+        <v>0.06105979527722434</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1370335841902409</v>
+        <v>0.1413289540562687</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -6027,19 +6027,19 @@
         <v>30869</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21924</v>
+        <v>21269</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42255</v>
+        <v>42159</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1412199935848292</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1002984289158088</v>
+        <v>0.09730228898488061</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1933088899384584</v>
+        <v>0.1928703010770901</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -6048,19 +6048,19 @@
         <v>50095</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37900</v>
+        <v>37969</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64199</v>
+        <v>65014</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.116553043566211</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08817914068079849</v>
+        <v>0.08834011136781764</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1493656616301313</v>
+        <v>0.1512620282479737</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>191994</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>182277</v>
+        <v>181369</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>199219</v>
+        <v>198324</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9089741277291064</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8629664158097591</v>
+        <v>0.8586710459437312</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9431791334277705</v>
+        <v>0.9389402047227756</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>193</v>
@@ -6098,19 +6098,19 @@
         <v>187718</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176332</v>
+        <v>176428</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>196663</v>
+        <v>197318</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8587800064151708</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8066911100615416</v>
+        <v>0.8071296989229099</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8997015710841915</v>
+        <v>0.9026977110151194</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>386</v>
@@ -6119,19 +6119,19 @@
         <v>379713</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>365609</v>
+        <v>364794</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>391908</v>
+        <v>391839</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.883446956433789</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8506343383698692</v>
+        <v>0.8487379717520265</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9118208593192016</v>
+        <v>0.9116598886321824</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>24214</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16131</v>
+        <v>16028</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35788</v>
+        <v>34630</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0920235263424997</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06130545501536196</v>
+        <v>0.06091298446844289</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1360115359306221</v>
+        <v>0.1316102666901404</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -6244,19 +6244,19 @@
         <v>31454</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21314</v>
+        <v>21340</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42510</v>
+        <v>44595</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1151678469638045</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07804025302343975</v>
+        <v>0.07813411692004595</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1556499096377779</v>
+        <v>0.1632826819585204</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -6265,19 +6265,19 @@
         <v>55668</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42452</v>
+        <v>42923</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72157</v>
+        <v>73638</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1038113167286484</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07916594293658048</v>
+        <v>0.08004537677722057</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1345617241240115</v>
+        <v>0.1373234877884823</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>238909</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>227335</v>
+        <v>228493</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>246992</v>
+        <v>247095</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9079764736575003</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.863988464069378</v>
+        <v>0.8683897333098599</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9386945449846384</v>
+        <v>0.9390870155315572</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>236</v>
@@ -6315,19 +6315,19 @@
         <v>241661</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>230605</v>
+        <v>228520</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>251801</v>
+        <v>251775</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8848321530361956</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8443500903622221</v>
+        <v>0.8367173180414794</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9219597469765602</v>
+        <v>0.9218658830799541</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>472</v>
@@ -6336,19 +6336,19 @@
         <v>480570</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>464081</v>
+        <v>462600</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>493786</v>
+        <v>493315</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8961886832713516</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8654382758759889</v>
+        <v>0.8626765122115178</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.92083405706342</v>
+        <v>0.9199546232227795</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>62230</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47890</v>
+        <v>48084</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>79830</v>
+        <v>79539</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09478175255550612</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07294094883435058</v>
+        <v>0.07323585682568598</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1215891735480173</v>
+        <v>0.1211448352159481</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>103</v>
@@ -6461,19 +6461,19 @@
         <v>113120</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>94384</v>
+        <v>95849</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>133845</v>
+        <v>138749</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1636351948137738</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1365322846984063</v>
+        <v>0.1386519276642913</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1936144594476495</v>
+        <v>0.200709145367234</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>159</v>
@@ -6482,19 +6482,19 @@
         <v>175350</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>150132</v>
+        <v>151036</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>201535</v>
+        <v>203335</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1300956977302528</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1113864042584516</v>
+        <v>0.1120565736047632</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1495233772903916</v>
+        <v>0.1508583223431665</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>594328</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>576728</v>
+        <v>577019</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>608668</v>
+        <v>608474</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9052182474444939</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8784108264519824</v>
+        <v>0.8788551647840519</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9270590511656494</v>
+        <v>0.9267641431743141</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>543</v>
@@ -6532,19 +6532,19 @@
         <v>578174</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>557449</v>
+        <v>552545</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>596910</v>
+        <v>595445</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8363648051862261</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8063855405523505</v>
+        <v>0.7992908546327659</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8634677153015928</v>
+        <v>0.8613480723357086</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1067</v>
@@ -6553,19 +6553,19 @@
         <v>1172502</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1146317</v>
+        <v>1144517</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1197720</v>
+        <v>1196816</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8699043022697472</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8504766227096084</v>
+        <v>0.8491416776568337</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8886135957415484</v>
+        <v>0.887943426395237</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>66619</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51651</v>
+        <v>50508</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>83276</v>
+        <v>83198</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08556469537887064</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06633934675694478</v>
+        <v>0.06487215840766619</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1069589113548616</v>
+        <v>0.1068588668583382</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>88</v>
@@ -6678,19 +6678,19 @@
         <v>103773</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>83773</v>
+        <v>84618</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>126162</v>
+        <v>127061</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1256075601719978</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1013990294231778</v>
+        <v>0.1024228354700832</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1527081890481435</v>
+        <v>0.153796273392472</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>150</v>
@@ -6699,19 +6699,19 @@
         <v>170392</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>147194</v>
+        <v>145180</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>197318</v>
+        <v>199097</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1061798027677928</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09172385014129461</v>
+        <v>0.09046901296155914</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1229587827000416</v>
+        <v>0.1240672684522389</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>711964</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>695307</v>
+        <v>695385</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>726932</v>
+        <v>728075</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9144353046211293</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.893041088645138</v>
+        <v>0.8931411331416615</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9336606532430551</v>
+        <v>0.9351278415923338</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>667</v>
@@ -6749,19 +6749,19 @@
         <v>722394</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>700005</v>
+        <v>699106</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>742394</v>
+        <v>741549</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8743924398280022</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8472918109518568</v>
+        <v>0.8462037266075282</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8986009705768224</v>
+        <v>0.8975771645299171</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1355</v>
@@ -6770,19 +6770,19 @@
         <v>1434358</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1407432</v>
+        <v>1405653</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1457556</v>
+        <v>1459570</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8938201972322072</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8770412172999585</v>
+        <v>0.8759327315477611</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9082761498587054</v>
+        <v>0.9095309870384409</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>277488</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>245565</v>
+        <v>242607</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>311764</v>
+        <v>309892</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08175006649319923</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07234534503102853</v>
+        <v>0.07147386150837934</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09184800556334456</v>
+        <v>0.09129643426613057</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>443</v>
@@ -6895,19 +6895,19 @@
         <v>492741</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>453845</v>
+        <v>450531</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>539262</v>
+        <v>538752</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1390138869810334</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1280404166860951</v>
+        <v>0.1271055238490895</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1521388044899166</v>
+        <v>0.1519947269217912</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>706</v>
@@ -6916,19 +6916,19 @@
         <v>770229</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>717325</v>
+        <v>715984</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>825510</v>
+        <v>823104</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1110017116743077</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1033774125033427</v>
+        <v>0.1031841270932156</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.118968511710014</v>
+        <v>0.1186218275903254</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3116862</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3082586</v>
+        <v>3084458</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3148785</v>
+        <v>3151743</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9182499335068007</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9081519944366553</v>
+        <v>0.9087035657338692</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9276546549689714</v>
+        <v>0.9285261384916206</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2895</v>
@@ -6966,19 +6966,19 @@
         <v>3051801</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3005280</v>
+        <v>3005790</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3090697</v>
+        <v>3094011</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8609861130189667</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8478611955100827</v>
+        <v>0.8480052730782087</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8719595833139049</v>
+        <v>0.8728944761509104</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5863</v>
@@ -6987,19 +6987,19 @@
         <v>6168663</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6113382</v>
+        <v>6115788</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6221567</v>
+        <v>6222908</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8889982883256924</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8810314882899862</v>
+        <v>0.8813781724096745</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8966225874966574</v>
+        <v>0.8968158729067847</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>33142</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23893</v>
+        <v>24620</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43408</v>
+        <v>45573</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1039445960914117</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07493459319656813</v>
+        <v>0.07721619941315674</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1361411655455562</v>
+        <v>0.1429314415485481</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -7356,19 +7356,19 @@
         <v>36347</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28822</v>
+        <v>28937</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46004</v>
+        <v>45517</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.114999840233087</v>
+        <v>0.1149998402330869</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09119045542391234</v>
+        <v>0.09155512095185639</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1455557628699181</v>
+        <v>0.1440133465545208</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -7377,19 +7377,19 @@
         <v>69489</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57649</v>
+        <v>57409</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82721</v>
+        <v>83389</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1094479745278088</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09079926550375758</v>
+        <v>0.09042076456570067</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1302888926629965</v>
+        <v>0.1313411731306635</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>285703</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>275437</v>
+        <v>273272</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>294952</v>
+        <v>294225</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8960554039085882</v>
+        <v>0.8960554039085884</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.863858834454444</v>
+        <v>0.8570685584514519</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.925065406803432</v>
+        <v>0.9227838005868431</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>467</v>
@@ -7427,19 +7427,19 @@
         <v>279714</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270057</v>
+        <v>270544</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>287239</v>
+        <v>287124</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8850001597669132</v>
+        <v>0.8850001597669129</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8544442371300823</v>
+        <v>0.8559866534454792</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9088095445760878</v>
+        <v>0.9084448790481439</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>758</v>
@@ -7448,19 +7448,19 @@
         <v>565417</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>552185</v>
+        <v>551517</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>577257</v>
+        <v>577497</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8905520254721913</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8697111073370034</v>
+        <v>0.8686588268693363</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9092007344962425</v>
+        <v>0.9095792354342993</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>80483</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63423</v>
+        <v>62633</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102272</v>
+        <v>101753</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1519518714096195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1197427807718857</v>
+        <v>0.1182504551952012</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1930903079638503</v>
+        <v>0.1921093246733667</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>233</v>
@@ -7573,19 +7573,19 @@
         <v>161982</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>143617</v>
+        <v>143424</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>182052</v>
+        <v>178556</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2967735115891189</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2631266383712164</v>
+        <v>0.262773338976478</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3335461387461244</v>
+        <v>0.3271408071750055</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>298</v>
@@ -7594,19 +7594,19 @@
         <v>242465</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>215031</v>
+        <v>217158</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>271443</v>
+        <v>271094</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2254500592789515</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1999415328040173</v>
+        <v>0.2019189591188263</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2523946789982419</v>
+        <v>0.2520708241511063</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>449177</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>427388</v>
+        <v>427907</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>466237</v>
+        <v>467027</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8480481285903806</v>
+        <v>0.8480481285903805</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8069096920361496</v>
+        <v>0.8078906753266334</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8802572192281144</v>
+        <v>0.8817495448047988</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>483</v>
@@ -7644,19 +7644,19 @@
         <v>383827</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>363757</v>
+        <v>367253</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>402192</v>
+        <v>402385</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7032264884108811</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6664538612538755</v>
+        <v>0.6728591928249944</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7368733616287835</v>
+        <v>0.7372266610235221</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>799</v>
@@ -7665,19 +7665,19 @@
         <v>833004</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>804026</v>
+        <v>804375</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>860438</v>
+        <v>858311</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7745499407210484</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7476053210017582</v>
+        <v>0.7479291758488938</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8000584671959826</v>
+        <v>0.7980810408811737</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>61447</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48887</v>
+        <v>50177</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73534</v>
+        <v>74675</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1944557684365728</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1547078930164631</v>
+        <v>0.1587921150076275</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2327087027030164</v>
+        <v>0.2363185168389132</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>177</v>
@@ -7790,19 +7790,19 @@
         <v>101679</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89226</v>
+        <v>89542</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115313</v>
+        <v>116771</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2853100284647919</v>
+        <v>0.285310028464792</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2503682524441154</v>
+        <v>0.2512529557452516</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3235658467766855</v>
+        <v>0.3276570101696898</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>260</v>
@@ -7811,19 +7811,19 @@
         <v>163126</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142954</v>
+        <v>145886</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180920</v>
+        <v>181961</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2426115953192882</v>
+        <v>0.2426115953192881</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2126098808737391</v>
+        <v>0.2169709469145302</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2690759950450534</v>
+        <v>0.2706245590400311</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>254546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>242459</v>
+        <v>241318</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>267106</v>
+        <v>265816</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8055442315634272</v>
+        <v>0.8055442315634271</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7672912972969838</v>
+        <v>0.7636814831610867</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8452921069835371</v>
+        <v>0.8412078849923724</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>359</v>
@@ -7861,19 +7861,19 @@
         <v>254702</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>241068</v>
+        <v>239610</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>267155</v>
+        <v>266839</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7146899715352081</v>
+        <v>0.714689971535208</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6764341532233145</v>
+        <v>0.6723429898303098</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7496317475558844</v>
+        <v>0.7487470442547485</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>636</v>
@@ -7882,19 +7882,19 @@
         <v>509249</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>491455</v>
+        <v>490414</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>529421</v>
+        <v>526489</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7573884046807119</v>
+        <v>0.7573884046807118</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.730924004954947</v>
+        <v>0.7293754409599691</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7873901191262609</v>
+        <v>0.7830290530854699</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>51563</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37698</v>
+        <v>38090</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67040</v>
+        <v>68423</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1381853600262154</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1010288152031805</v>
+        <v>0.1020780491731057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1796616944346891</v>
+        <v>0.1833694938002939</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>218</v>
@@ -8007,19 +8007,19 @@
         <v>125525</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>109181</v>
+        <v>109199</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142754</v>
+        <v>145152</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2974792199068114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2587469943160283</v>
+        <v>0.2587900675664107</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3383101131757403</v>
+        <v>0.3439941233100194</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>272</v>
@@ -8028,19 +8028,19 @@
         <v>177088</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>156154</v>
+        <v>154870</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>201032</v>
+        <v>199580</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2227222742778441</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1963934067185732</v>
+        <v>0.1947786804997392</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.252836132735329</v>
+        <v>0.251009661606364</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>321582</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>306105</v>
+        <v>304722</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>335447</v>
+        <v>335055</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8618146399737847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8203383055653108</v>
+        <v>0.8166305061997062</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8989711847968196</v>
+        <v>0.8979219508268945</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>381</v>
@@ -8078,19 +8078,19 @@
         <v>296436</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>279207</v>
+        <v>276809</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>312780</v>
+        <v>312762</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7025207800931887</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6616898868242599</v>
+        <v>0.6560058766899802</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7412530056839722</v>
+        <v>0.7412099324335892</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>619</v>
@@ -8099,19 +8099,19 @@
         <v>618019</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>594075</v>
+        <v>595527</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>638953</v>
+        <v>640237</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7772777257221559</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7471638672646713</v>
+        <v>0.7489903383936362</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8036065932814268</v>
+        <v>0.8052213195002608</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>31037</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22724</v>
+        <v>23420</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39359</v>
+        <v>40124</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1515694175298065</v>
+        <v>0.1515694175298066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1109711627214393</v>
+        <v>0.1143685136529125</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1922084294029927</v>
+        <v>0.1959426694456328</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>123</v>
@@ -8224,19 +8224,19 @@
         <v>50743</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42514</v>
+        <v>42842</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>58990</v>
+        <v>59199</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2237098637456409</v>
+        <v>0.2237098637456408</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1874320231616735</v>
+        <v>0.18887873490101</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.260070709701868</v>
+        <v>0.2609940293419972</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>171</v>
@@ -8245,19 +8245,19 @@
         <v>81780</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70436</v>
+        <v>70240</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94427</v>
+        <v>93709</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1894824383801706</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1631988768686632</v>
+        <v>0.1627440347855035</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2187844730724961</v>
+        <v>0.2171223363393908</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>173736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>165414</v>
+        <v>164649</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>182049</v>
+        <v>181353</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8484305824701935</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8077915705970073</v>
+        <v>0.8040573305543671</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8890288372785606</v>
+        <v>0.8856314863470877</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>368</v>
@@ -8295,19 +8295,19 @@
         <v>176080</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>167833</v>
+        <v>167624</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>184309</v>
+        <v>183981</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7762901362543592</v>
+        <v>0.7762901362543589</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7399292902981318</v>
+        <v>0.7390059706580024</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8125679768383263</v>
+        <v>0.81112126509899</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>598</v>
@@ -8316,19 +8316,19 @@
         <v>349817</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>337170</v>
+        <v>337888</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>361161</v>
+        <v>361357</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8105175616198294</v>
+        <v>0.8105175616198295</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7812155269275036</v>
+        <v>0.782877663660609</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8368011231313367</v>
+        <v>0.8372559652144964</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>69215</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56672</v>
+        <v>57177</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81686</v>
+        <v>82362</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2556813333516738</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2093471198703589</v>
+        <v>0.2112128888143089</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3017495072115182</v>
+        <v>0.3042485848251634</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>198</v>
@@ -8441,19 +8441,19 @@
         <v>95248</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>83654</v>
+        <v>83932</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>108011</v>
+        <v>107912</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3620215869571211</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3179578028518749</v>
+        <v>0.3190137694279056</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4105327778536574</v>
+        <v>0.4101579324060856</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>311</v>
@@ -8462,19 +8462,19 @@
         <v>164462</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>146476</v>
+        <v>148467</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>180590</v>
+        <v>182562</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3080936830225667</v>
+        <v>0.3080936830225668</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2743985307457322</v>
+        <v>0.2781283478219488</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3383058306315103</v>
+        <v>0.3420001725421276</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>201492</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>189021</v>
+        <v>188345</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>214035</v>
+        <v>213530</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7443186666483262</v>
+        <v>0.7443186666483264</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6982504927884816</v>
+        <v>0.6957514151748369</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7906528801296411</v>
+        <v>0.7887871111856913</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>261</v>
@@ -8512,19 +8512,19 @@
         <v>167851</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>155088</v>
+        <v>155187</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>179445</v>
+        <v>179167</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6379784130428788</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5894672221463424</v>
+        <v>0.5898420675939142</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.682042197148125</v>
+        <v>0.6809862305720941</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>519</v>
@@ -8533,19 +8533,19 @@
         <v>369344</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>353216</v>
+        <v>351244</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>387330</v>
+        <v>385339</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6919063169774333</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6616941693684897</v>
+        <v>0.6579998274578726</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.725601469254268</v>
+        <v>0.7218716521780517</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>187323</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>162461</v>
+        <v>163742</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>214015</v>
+        <v>215858</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.261915671880317</v>
+        <v>0.2619156718803169</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.227154281280492</v>
+        <v>0.2289446108265749</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2992368678251062</v>
+        <v>0.3018146827633165</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>450</v>
@@ -8658,19 +8658,19 @@
         <v>336913</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>312023</v>
+        <v>310049</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>364743</v>
+        <v>362809</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4371620176471613</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4048654770509732</v>
+        <v>0.4023043784593898</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4732728177280072</v>
+        <v>0.470763025654403</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>623</v>
@@ -8679,19 +8679,19 @@
         <v>524236</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>484923</v>
+        <v>484205</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>559235</v>
+        <v>560954</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3528105989311373</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3263529936060826</v>
+        <v>0.3258698120266494</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3763647070342577</v>
+        <v>0.3775214972041297</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>527879</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>501187</v>
+        <v>499344</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>552741</v>
+        <v>551460</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7380843281196831</v>
+        <v>0.7380843281196832</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7007631321748936</v>
+        <v>0.6981853172366833</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7728457187195078</v>
+        <v>0.7710553891734252</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>508</v>
@@ -8729,19 +8729,19 @@
         <v>433770</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>405940</v>
+        <v>407874</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>458660</v>
+        <v>460634</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5628379823528388</v>
+        <v>0.5628379823528387</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5267271822719929</v>
+        <v>0.5292369743455969</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5951345229490269</v>
+        <v>0.5976956215406105</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>931</v>
@@ -8750,19 +8750,19 @@
         <v>961649</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>926650</v>
+        <v>924931</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1000962</v>
+        <v>1001680</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6471894010688627</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6236352929657426</v>
+        <v>0.6224785027958701</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6736470063939177</v>
+        <v>0.6741301879733503</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>140067</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>122006</v>
+        <v>119069</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>163984</v>
+        <v>160672</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1755064432189077</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1528754919470873</v>
+        <v>0.1491954474518247</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2054750233799943</v>
+        <v>0.2013250678570573</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>349</v>
@@ -8875,19 +8875,19 @@
         <v>233499</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>212820</v>
+        <v>213988</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>254877</v>
+        <v>256588</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2811181202866848</v>
+        <v>0.2811181202866849</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2562218997135681</v>
+        <v>0.2576277751722856</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3068552400758155</v>
+        <v>0.3089151708648559</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>511</v>
@@ -8896,19 +8896,19 @@
         <v>373566</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>342760</v>
+        <v>342235</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>407825</v>
+        <v>405094</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2293672058388564</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2104524456313226</v>
+        <v>0.2101301012339579</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2504020992889077</v>
+        <v>0.248725075865735</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>658005</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>634088</v>
+        <v>637400</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>676066</v>
+        <v>679003</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8244935567810922</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7945249766200055</v>
+        <v>0.7986749321429425</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8471245080529125</v>
+        <v>0.8508045525481752</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>712</v>
@@ -8946,19 +8946,19 @@
         <v>597110</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>575732</v>
+        <v>574021</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>617789</v>
+        <v>616621</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7188818797133153</v>
+        <v>0.7188818797133151</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6931447599241848</v>
+        <v>0.6910848291351441</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7437781002864325</v>
+        <v>0.7423722248277144</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1312</v>
@@ -8967,19 +8967,19 @@
         <v>1255115</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1220856</v>
+        <v>1223587</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1285921</v>
+        <v>1286446</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7706327941611435</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7495979007110922</v>
+        <v>0.751274924134265</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7895475543686773</v>
+        <v>0.7898698987660421</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>654276</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>609062</v>
+        <v>611490</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>702669</v>
+        <v>703216</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1855367598185093</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1727151730914362</v>
+        <v>0.1734037009393283</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.19925979089235</v>
+        <v>0.1994148116023773</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1819</v>
@@ -9092,19 +9092,19 @@
         <v>1141936</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1088278</v>
+        <v>1096054</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1185727</v>
+        <v>1190032</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3060317936661508</v>
+        <v>0.3060317936661509</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2916518991047409</v>
+        <v>0.2937358455596036</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3177675983608105</v>
+        <v>0.3189213233382468</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2557</v>
@@ -9113,19 +9113,19 @@
         <v>1796212</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1721414</v>
+        <v>1728697</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1866948</v>
+        <v>1868398</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2474862369778001</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2371804467427434</v>
+        <v>0.238183882976242</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2572324275934349</v>
+        <v>0.2574322023582393</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2872122</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2823729</v>
+        <v>2823182</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2917336</v>
+        <v>2914908</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8144632401814909</v>
+        <v>0.8144632401814907</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8007402091076501</v>
+        <v>0.8005851883976223</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.827284826908564</v>
+        <v>0.8265962990606716</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3539</v>
@@ -9163,19 +9163,19 @@
         <v>2589492</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2545701</v>
+        <v>2541396</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2643150</v>
+        <v>2635374</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.6939682063338491</v>
+        <v>0.6939682063338493</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6822324016391896</v>
+        <v>0.6810786766617533</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7083481008952596</v>
+        <v>0.7062641544403967</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6172</v>
@@ -9184,19 +9184,19 @@
         <v>5461614</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5390878</v>
+        <v>5389428</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5536412</v>
+        <v>5529129</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7525137630222</v>
+        <v>0.7525137630221999</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7427675724065642</v>
+        <v>0.7425677976417608</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7628195532572565</v>
+        <v>0.7618161170237578</v>
       </c>
     </row>
     <row r="30">
